--- a/utilities/clientes.xlsx
+++ b/utilities/clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro\OneDrive\Escritorio\playGround\NSolar\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61835194-2B3F-46AE-AA28-B8ACB5E1779D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F431541C-F655-4752-86F5-53855A8F6EAF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20865" yWindow="1185" windowWidth="15300" windowHeight="7965" xr2:uid="{3BEC085C-6309-4420-83CE-024255B37E45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BEC085C-6309-4420-83CE-024255B37E45}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="169">
   <si>
     <t>Cliente</t>
   </si>
@@ -306,15 +306,243 @@
   </si>
   <si>
     <t>04/04/2018 </t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>03/09/2019</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>05/01/3018</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>10/26/2018</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>09/26/2018</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>03/13/2019</t>
+  </si>
+  <si>
+    <t>02/13/2019</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>01/18/2019</t>
+  </si>
+  <si>
+    <t>12/14/2018</t>
+  </si>
+  <si>
+    <t>03/16/2019</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="mm/dd/yyyy;@"/>
-  </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -420,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,22 +676,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F87B73-9275-4293-9D42-C1630D53FA74}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -792,14 +1022,14 @@
     <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="16" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:12" ht="25.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -815,10 +1045,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -831,8 +1061,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
@@ -847,11 +1077,11 @@
       <c r="E2" s="2">
         <v>250</v>
       </c>
-      <c r="F2" s="12">
-        <v>42161</v>
-      </c>
-      <c r="G2" s="12">
-        <v>42164</v>
+      <c r="F2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>11</v>
@@ -863,8 +1093,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2">
@@ -879,11 +1109,11 @@
       <c r="E3" s="2">
         <v>250</v>
       </c>
-      <c r="F3" s="12">
-        <v>42139</v>
-      </c>
-      <c r="G3" s="12">
-        <v>42164</v>
+      <c r="F3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>11</v>
@@ -895,8 +1125,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="2">
@@ -911,11 +1141,11 @@
       <c r="E4" s="2">
         <v>240</v>
       </c>
-      <c r="F4" s="12">
-        <v>42174</v>
-      </c>
-      <c r="G4" s="12">
-        <v>41253</v>
+      <c r="F4" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>16</v>
@@ -926,9 +1156,10 @@
       <c r="J4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15" t="s">
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2">
@@ -943,11 +1174,11 @@
       <c r="E5" s="2">
         <v>250</v>
       </c>
-      <c r="F5" s="13">
-        <v>42210</v>
-      </c>
-      <c r="G5" s="12">
-        <v>42241</v>
+      <c r="F5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>11</v>
@@ -959,8 +1190,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2">
@@ -975,11 +1206,11 @@
       <c r="E6" s="2">
         <v>250</v>
       </c>
-      <c r="F6" s="12">
-        <v>42138</v>
-      </c>
-      <c r="G6" s="12">
-        <v>42164</v>
+      <c r="F6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>11</v>
@@ -991,8 +1222,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
@@ -1007,11 +1238,11 @@
       <c r="E7" s="2">
         <v>250</v>
       </c>
-      <c r="F7" s="12">
-        <v>42331</v>
-      </c>
-      <c r="G7" s="12">
-        <v>42361</v>
+      <c r="F7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>11</v>
@@ -1023,8 +1254,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2">
@@ -1039,11 +1270,11 @@
       <c r="E8" s="2">
         <v>250</v>
       </c>
-      <c r="F8" s="12">
-        <v>42249</v>
-      </c>
-      <c r="G8" s="12">
-        <v>42258</v>
+      <c r="F8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>136</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>11</v>
@@ -1055,8 +1286,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2">
@@ -1071,11 +1302,11 @@
       <c r="E9" s="2">
         <v>250</v>
       </c>
-      <c r="F9" s="12">
-        <v>42277</v>
-      </c>
-      <c r="G9" s="12">
-        <v>42326</v>
+      <c r="F9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>11</v>
@@ -1087,8 +1318,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2">
@@ -1103,10 +1334,10 @@
       <c r="E10" s="2">
         <v>250</v>
       </c>
-      <c r="F10" s="12">
-        <v>42411</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1119,8 +1350,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2">
@@ -1135,11 +1366,11 @@
       <c r="E11" s="2">
         <v>250</v>
       </c>
-      <c r="F11" s="12">
-        <v>42290</v>
-      </c>
-      <c r="G11" s="12">
-        <v>42692</v>
+      <c r="F11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>11</v>
@@ -1151,8 +1382,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5">
@@ -1167,11 +1398,11 @@
       <c r="E12" s="2">
         <v>270</v>
       </c>
-      <c r="F12" s="12">
-        <v>42951</v>
-      </c>
-      <c r="G12" s="12">
-        <v>42966</v>
+      <c r="F12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>28</v>
@@ -1183,8 +1414,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2">
@@ -1199,11 +1430,11 @@
       <c r="E13" s="2">
         <v>260</v>
       </c>
-      <c r="F13" s="12">
-        <v>42594</v>
-      </c>
-      <c r="G13" s="12">
-        <v>42611</v>
+      <c r="F13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>31</v>
@@ -1215,8 +1446,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="2">
@@ -1231,11 +1462,11 @@
       <c r="E14" s="2">
         <v>260</v>
       </c>
-      <c r="F14" s="12">
-        <v>42562</v>
-      </c>
-      <c r="G14" s="12">
-        <v>42681</v>
+      <c r="F14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>31</v>
@@ -1247,8 +1478,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="5">
@@ -1263,11 +1494,11 @@
       <c r="E15" s="2">
         <v>260</v>
       </c>
-      <c r="F15" s="12">
-        <v>42580</v>
-      </c>
-      <c r="G15" s="12">
-        <v>42629</v>
+      <c r="F15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>31</v>
@@ -1279,8 +1510,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="5">
@@ -1295,11 +1526,11 @@
       <c r="E16" s="2">
         <v>260</v>
       </c>
-      <c r="F16" s="12">
-        <v>42439</v>
-      </c>
-      <c r="G16" s="12">
-        <v>42587</v>
+      <c r="F16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>31</v>
@@ -1312,7 +1543,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="5">
@@ -1327,11 +1558,11 @@
       <c r="E17" s="2">
         <v>315</v>
       </c>
-      <c r="F17" s="12">
-        <v>42914</v>
-      </c>
-      <c r="G17" s="12">
-        <v>42928</v>
+      <c r="F17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>28</v>
@@ -1344,7 +1575,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="5">
@@ -1359,11 +1590,11 @@
       <c r="E18" s="2">
         <v>260</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="12">
-        <v>42557</v>
+      <c r="G18" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>31</v>
@@ -1376,7 +1607,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="2">
@@ -1391,11 +1622,11 @@
       <c r="E19" s="2">
         <v>260</v>
       </c>
-      <c r="F19" s="12">
-        <v>42547</v>
-      </c>
-      <c r="G19" s="12">
-        <v>42605</v>
+      <c r="F19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>28</v>
@@ -1408,7 +1639,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="5">
@@ -1423,11 +1654,11 @@
       <c r="E20" s="2">
         <v>260</v>
       </c>
-      <c r="F20" s="12">
-        <v>42482</v>
-      </c>
-      <c r="G20" s="12">
-        <v>42629</v>
+      <c r="F20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>31</v>
@@ -1440,7 +1671,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="5">
@@ -1455,11 +1686,11 @@
       <c r="E21" s="2">
         <v>260</v>
       </c>
-      <c r="F21" s="12">
-        <v>42500</v>
-      </c>
-      <c r="G21" s="12">
-        <v>42587</v>
+      <c r="F21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>31</v>
@@ -1472,7 +1703,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="5">
@@ -1487,11 +1718,11 @@
       <c r="E22" s="2">
         <v>260</v>
       </c>
-      <c r="F22" s="12">
-        <v>42534</v>
-      </c>
-      <c r="G22" s="12">
-        <v>42587</v>
+      <c r="F22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>31</v>
@@ -1504,7 +1735,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="5">
@@ -1519,11 +1750,11 @@
       <c r="E23" s="2">
         <v>260</v>
       </c>
-      <c r="F23" s="12">
-        <v>42593</v>
-      </c>
-      <c r="G23" s="12">
-        <v>42692</v>
+      <c r="F23" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>31</v>
@@ -1536,7 +1767,7 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="5">
@@ -1551,10 +1782,10 @@
       <c r="E24" s="2">
         <v>260</v>
       </c>
-      <c r="F24" s="12">
-        <v>42564</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="8" t="s">
@@ -1568,7 +1799,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="5">
@@ -1583,11 +1814,11 @@
       <c r="E25" s="2">
         <v>315</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="12">
-        <v>42699</v>
+      <c r="G25" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>28</v>
@@ -1600,7 +1831,7 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="5">
@@ -1615,11 +1846,11 @@
       <c r="E26" s="2">
         <v>315</v>
       </c>
-      <c r="F26" s="12">
-        <v>42681</v>
-      </c>
-      <c r="G26" s="12">
-        <v>42704</v>
+      <c r="F26" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>28</v>
@@ -1632,7 +1863,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="5">
@@ -1647,11 +1878,11 @@
       <c r="E27" s="2">
         <v>260</v>
       </c>
-      <c r="F27" s="12">
-        <v>42592</v>
-      </c>
-      <c r="G27" s="12">
-        <v>43054</v>
+      <c r="F27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>28</v>
@@ -1664,7 +1895,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="5">
@@ -1679,11 +1910,11 @@
       <c r="E28" s="2">
         <v>270</v>
       </c>
-      <c r="F28" s="12">
-        <v>42627</v>
-      </c>
-      <c r="G28" s="12">
-        <v>42709</v>
+      <c r="F28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>28</v>
@@ -1696,7 +1927,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="5">
@@ -1711,11 +1942,11 @@
       <c r="E29" s="2">
         <v>270</v>
       </c>
-      <c r="F29" s="12">
-        <v>42668</v>
-      </c>
-      <c r="G29" s="12">
-        <v>42772</v>
+      <c r="F29" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>28</v>
@@ -1728,7 +1959,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="5">
@@ -1743,11 +1974,11 @@
       <c r="E30" s="2">
         <v>320</v>
       </c>
-      <c r="F30" s="12">
-        <v>42907</v>
-      </c>
-      <c r="G30" s="12">
-        <v>42956</v>
+      <c r="F30" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>56</v>
@@ -1760,7 +1991,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="5">
@@ -1775,11 +2006,11 @@
       <c r="E31" s="2">
         <v>270</v>
       </c>
-      <c r="F31" s="12">
-        <v>42910</v>
-      </c>
-      <c r="G31" s="12">
-        <v>43026</v>
+      <c r="F31" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>56</v>
@@ -1792,7 +2023,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="5">
@@ -1807,11 +2038,11 @@
       <c r="E32" s="2">
         <v>270</v>
       </c>
-      <c r="F32" s="12">
-        <v>42901</v>
-      </c>
-      <c r="G32" s="12">
-        <v>42999</v>
+      <c r="F32" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>56</v>
@@ -1824,7 +2055,7 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="5">
@@ -1839,11 +2070,11 @@
       <c r="E33" s="2">
         <v>320</v>
       </c>
-      <c r="F33" s="12">
-        <v>43174</v>
-      </c>
-      <c r="G33" s="12">
-        <v>43284</v>
+      <c r="F33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>56</v>
@@ -1856,7 +2087,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B34" s="5">
@@ -1871,11 +2102,11 @@
       <c r="E34" s="2">
         <v>320</v>
       </c>
-      <c r="F34" s="12">
-        <v>43182</v>
-      </c>
-      <c r="G34" s="12">
-        <v>43195</v>
+      <c r="F34" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>56</v>
@@ -1888,7 +2119,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="5">
@@ -1903,11 +2134,11 @@
       <c r="E35" s="2">
         <v>270</v>
       </c>
-      <c r="F35" s="12">
-        <v>43058</v>
-      </c>
-      <c r="G35" s="12">
-        <v>43178</v>
+      <c r="F35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>56</v>
@@ -1920,7 +2151,7 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="5">
@@ -1935,11 +2166,11 @@
       <c r="E36" s="2">
         <v>320</v>
       </c>
-      <c r="F36" s="12">
-        <v>43039</v>
-      </c>
-      <c r="G36" s="12">
-        <v>43178</v>
+      <c r="F36" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>56</v>
@@ -1952,7 +2183,7 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="5">
@@ -1967,11 +2198,11 @@
       <c r="E37" s="2">
         <v>330</v>
       </c>
-      <c r="F37" s="12">
-        <v>43140</v>
-      </c>
-      <c r="G37" s="12">
-        <v>43339</v>
+      <c r="F37" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>28</v>
@@ -1984,7 +2215,7 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="5">
@@ -1999,11 +2230,11 @@
       <c r="E38" s="2">
         <v>330</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G38" s="12">
-        <v>43369</v>
+      <c r="G38" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>28</v>
@@ -2016,7 +2247,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="25.5">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="5">
@@ -2031,11 +2262,11 @@
       <c r="E39" s="2">
         <v>330</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="12">
-        <v>43344</v>
+      <c r="G39" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>56</v>
@@ -2048,7 +2279,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="25.5">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="5">
@@ -2063,11 +2294,11 @@
       <c r="E40" s="2">
         <v>330</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G40" s="12">
-        <v>43537</v>
+      <c r="G40" s="13" t="s">
+        <v>160</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>56</v>
@@ -2080,7 +2311,7 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="5">
@@ -2095,11 +2326,11 @@
       <c r="E41" s="2">
         <v>330</v>
       </c>
-      <c r="F41" s="12">
-        <v>43533</v>
-      </c>
-      <c r="G41" s="12">
-        <v>43509</v>
+      <c r="F41" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>56</v>
@@ -2112,7 +2343,7 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B42" s="5">
@@ -2127,11 +2358,11 @@
       <c r="E42" s="2">
         <v>320</v>
       </c>
-      <c r="F42" s="12">
-        <v>43201</v>
-      </c>
-      <c r="G42" s="12">
-        <v>43252</v>
+      <c r="F42" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>56</v>
@@ -2144,7 +2375,7 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="5">
@@ -2159,11 +2390,11 @@
       <c r="E43" s="2">
         <v>320</v>
       </c>
-      <c r="F43" s="12">
-        <v>43250</v>
-      </c>
-      <c r="G43" s="12">
-        <v>43348</v>
+      <c r="F43" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>56</v>
@@ -2176,7 +2407,7 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B44" s="5">
@@ -2191,11 +2422,11 @@
       <c r="E44" s="2">
         <v>330</v>
       </c>
-      <c r="F44" s="13">
-        <v>408463</v>
-      </c>
-      <c r="G44" s="13">
-        <v>43337</v>
+      <c r="F44" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>28</v>
@@ -2208,7 +2439,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="25.5">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="5">
@@ -2223,11 +2454,11 @@
       <c r="E45" s="2">
         <v>330</v>
       </c>
-      <c r="F45" s="13">
-        <v>43299</v>
-      </c>
-      <c r="G45" s="13">
-        <v>43483</v>
+      <c r="F45" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>80</v>
@@ -2240,7 +2471,7 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="5">
@@ -2255,11 +2486,11 @@
       <c r="E46" s="2">
         <v>270</v>
       </c>
-      <c r="F46" s="13">
-        <v>43250</v>
-      </c>
-      <c r="G46" s="13">
-        <v>43448</v>
+      <c r="F46" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>56</v>
@@ -2272,7 +2503,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="25.5">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="6">
@@ -2287,11 +2518,11 @@
       <c r="E47" s="2">
         <v>330</v>
       </c>
-      <c r="F47" s="13">
-        <v>43399</v>
-      </c>
-      <c r="G47" s="13">
-        <v>43540</v>
+      <c r="F47" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>56</v>
@@ -2304,7 +2535,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="6">
@@ -2319,10 +2550,10 @@
       <c r="E48" s="2">
         <v>330</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H48" s="9" t="s">
@@ -2336,7 +2567,7 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B49" s="6">
@@ -2351,10 +2582,10 @@
       <c r="E49" s="2">
         <v>330</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H49" s="9" t="s">
@@ -2368,7 +2599,7 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="12" t="s">
         <v>89</v>
       </c>
       <c r="B50" s="6">
@@ -2383,10 +2614,10 @@
       <c r="E50" s="2">
         <v>330</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="9" t="s">
@@ -2400,7 +2631,7 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="6">
@@ -2415,11 +2646,11 @@
       <c r="E51" s="2">
         <v>320</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="13">
-        <v>43165</v>
+      <c r="G51" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>56</v>
@@ -2431,7 +2662,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="52" spans="1:10">
+      <c r="F52" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>